--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_35.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_26_35.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>118617.490332948</v>
+        <v>21018042.38927549</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>118617.490332948</v>
+        <v>21018042.38927549</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21677.14256753967</v>
+        <v>2632690.523950775</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21677.14256753967</v>
+        <v>2632690.523950775</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1341553526.113636</v>
+        <v>51601604.73971976</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10186.9874945492</v>
+        <v>1086105.86065193</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19865.53736820928</v>
+        <v>2107998.629477792</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>29571.13335470805</v>
+        <v>3152133.811396979</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>39404.7088960992</v>
+        <v>4156416.383900325</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>49115.7813479023</v>
+        <v>5201568.859083649</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>58778.79393283637</v>
+        <v>6250733.866144481</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68441.62958589547</v>
+        <v>7352045.610122022</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>78092.29723745721</v>
+        <v>8449651.069331886</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>88021.46378250608</v>
+        <v>9497707.354454406</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>97636.2209534421</v>
+        <v>10597853.67283121</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>106857.4541854868</v>
+        <v>11693971.75583437</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>116252.60334669</v>
+        <v>12790166.07911895</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>125660.4078289272</v>
+        <v>13886360.40240353</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>135578.5825957422</v>
+        <v>14903791.16250303</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>146790.2875781159</v>
+        <v>15665836.95284831</v>
       </c>
     </row>
   </sheetData>
@@ -27040,10 +27040,10 @@
         <v>49.00000000002609</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>355.9999999999739</v>
@@ -27055,10 +27055,10 @@
         <v>58.00000000014285</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>302.9999999998572</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>139</v>
